--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Shank1-Sstr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Shank1-Sstr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Sstr2</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.011158</v>
+        <v>0.035667</v>
       </c>
       <c r="H2">
-        <v>0.022316</v>
+        <v>0.07133399999999999</v>
       </c>
       <c r="I2">
-        <v>0.02689310845015146</v>
+        <v>0.08873263613905517</v>
       </c>
       <c r="J2">
-        <v>0.02101577501556218</v>
+        <v>0.0698079288670377</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.3086755</v>
+        <v>0.2370685</v>
       </c>
       <c r="N2">
-        <v>0.617351</v>
+        <v>0.474137</v>
       </c>
       <c r="O2">
-        <v>0.30886900643253</v>
+        <v>0.2557582470338728</v>
       </c>
       <c r="P2">
-        <v>0.2386071871529939</v>
+        <v>0.2145179446251183</v>
       </c>
       <c r="Q2">
-        <v>0.003444201229</v>
+        <v>0.008455522189499999</v>
       </c>
       <c r="R2">
-        <v>0.013776804916</v>
+        <v>0.033822088758</v>
       </c>
       <c r="S2">
-        <v>0.008306447686880559</v>
+        <v>0.02269410347361922</v>
       </c>
       <c r="T2">
-        <v>0.00501451496230346</v>
+        <v>0.01497505341909339</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.011158</v>
+        <v>0.035667</v>
       </c>
       <c r="H3">
-        <v>0.022316</v>
+        <v>0.07133399999999999</v>
       </c>
       <c r="I3">
-        <v>0.02689310845015146</v>
+        <v>0.08873263613905517</v>
       </c>
       <c r="J3">
-        <v>0.02101577501556218</v>
+        <v>0.0698079288670377</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.202345</v>
       </c>
       <c r="O3">
-        <v>0.06749061620438539</v>
+        <v>0.0727657512435843</v>
       </c>
       <c r="P3">
-        <v>0.07820667867140826</v>
+        <v>0.09154871588838155</v>
       </c>
       <c r="Q3">
-        <v>0.0007525885033333332</v>
+        <v>0.002405679705</v>
       </c>
       <c r="R3">
-        <v>0.00451553102</v>
+        <v>0.01443407823</v>
       </c>
       <c r="S3">
-        <v>0.001815032460952086</v>
+        <v>0.006456696928481967</v>
       </c>
       <c r="T3">
-        <v>0.001643573963672682</v>
+        <v>0.006390826246604783</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.011158</v>
+        <v>0.035667</v>
       </c>
       <c r="H4">
-        <v>0.022316</v>
+        <v>0.07133399999999999</v>
       </c>
       <c r="I4">
-        <v>0.02689310845015146</v>
+        <v>0.08873263613905517</v>
       </c>
       <c r="J4">
-        <v>0.02101577501556218</v>
+        <v>0.0698079288670377</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.07395633333333333</v>
+        <v>0.1397713333333333</v>
       </c>
       <c r="N4">
-        <v>0.221869</v>
+        <v>0.419314</v>
       </c>
       <c r="O4">
-        <v>0.07400269602239137</v>
+        <v>0.1507904727912837</v>
       </c>
       <c r="P4">
-        <v>0.08575273710814046</v>
+        <v>0.1897138958413641</v>
       </c>
       <c r="Q4">
-        <v>0.0008252047673333333</v>
+        <v>0.004985224145999999</v>
       </c>
       <c r="R4">
-        <v>0.004951228604</v>
+        <v>0.02991134487599999</v>
       </c>
       <c r="S4">
-        <v>0.001990162529733764</v>
+        <v>0.01338003615542508</v>
       </c>
       <c r="T4">
-        <v>0.001802160230033331</v>
+        <v>0.01324353414598255</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.011158</v>
+        <v>0.035667</v>
       </c>
       <c r="H5">
-        <v>0.022316</v>
+        <v>0.07133399999999999</v>
       </c>
       <c r="I5">
-        <v>0.02689310845015146</v>
+        <v>0.08873263613905517</v>
       </c>
       <c r="J5">
-        <v>0.02101577501556218</v>
+        <v>0.0698079288670377</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.102134</v>
+        <v>0.33346</v>
       </c>
       <c r="N5">
-        <v>0.204268</v>
+        <v>0.66692</v>
       </c>
       <c r="O5">
-        <v>0.1021980270639556</v>
+        <v>0.3597489546519897</v>
       </c>
       <c r="P5">
-        <v>0.07894992136623699</v>
+        <v>0.3017404413268399</v>
       </c>
       <c r="Q5">
-        <v>0.001139611172</v>
+        <v>0.01189351782</v>
       </c>
       <c r="R5">
-        <v>0.004558444688</v>
+        <v>0.04757407127999999</v>
       </c>
       <c r="S5">
-        <v>0.002748422625222472</v>
+        <v>0.03192147309454046</v>
       </c>
       <c r="T5">
-        <v>0.001659193784929162</v>
+        <v>0.0210638752644526</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.011158</v>
+        <v>0.035667</v>
       </c>
       <c r="H6">
-        <v>0.022316</v>
+        <v>0.07133399999999999</v>
       </c>
       <c r="I6">
-        <v>0.02689310845015146</v>
+        <v>0.08873263613905517</v>
       </c>
       <c r="J6">
-        <v>0.02101577501556218</v>
+        <v>0.0698079288670377</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,28 +809,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.3978413333333333</v>
+        <v>0.07160233333333334</v>
       </c>
       <c r="N6">
-        <v>1.193524</v>
+        <v>0.214807</v>
       </c>
       <c r="O6">
-        <v>0.3980907371801767</v>
+        <v>0.07724723975082463</v>
       </c>
       <c r="P6">
-        <v>0.4612990088937897</v>
+        <v>0.09718700740732698</v>
       </c>
       <c r="Q6">
-        <v>0.004439113597333333</v>
+        <v>0.002553840423</v>
       </c>
       <c r="R6">
-        <v>0.026634681584</v>
+        <v>0.015323042538</v>
       </c>
       <c r="S6">
-        <v>0.01070589736798724</v>
+        <v>0.006854351217556281</v>
       </c>
       <c r="T6">
-        <v>0.009694556185813703</v>
+        <v>0.006784423699890948</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.011158</v>
+        <v>0.035667</v>
       </c>
       <c r="H7">
-        <v>0.022316</v>
+        <v>0.07133399999999999</v>
       </c>
       <c r="I7">
-        <v>0.02689310845015146</v>
+        <v>0.08873263613905517</v>
       </c>
       <c r="J7">
-        <v>0.02101577501556218</v>
+        <v>0.0698079288670377</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.049318</v>
+        <v>0.07757366666666667</v>
       </c>
       <c r="N7">
-        <v>0.147954</v>
+        <v>0.232721</v>
       </c>
       <c r="O7">
-        <v>0.049348917096561</v>
+        <v>0.08368933452844489</v>
       </c>
       <c r="P7">
-        <v>0.05718446680743057</v>
+        <v>0.1052919949109691</v>
       </c>
       <c r="Q7">
-        <v>0.0005502902439999999</v>
+        <v>0.002766819969</v>
       </c>
       <c r="R7">
-        <v>0.003301741464</v>
+        <v>0.016600919814</v>
       </c>
       <c r="S7">
-        <v>0.001327145779375349</v>
+        <v>0.007425975269432167</v>
       </c>
       <c r="T7">
-        <v>0.001201775888809844</v>
+        <v>0.007350216091013427</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>0.5769949999999999</v>
       </c>
       <c r="I8">
-        <v>0.463559452416656</v>
+        <v>0.4784841953725119</v>
       </c>
       <c r="J8">
-        <v>0.5433768195511876</v>
+        <v>0.5646511609700341</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,28 +933,28 @@
         <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.3086755</v>
+        <v>0.2370685</v>
       </c>
       <c r="N8">
-        <v>0.617351</v>
+        <v>0.474137</v>
       </c>
       <c r="O8">
-        <v>0.30886900643253</v>
+        <v>0.2557582470338728</v>
       </c>
       <c r="P8">
-        <v>0.2386071871529939</v>
+        <v>0.2145179446251183</v>
       </c>
       <c r="Q8">
-        <v>0.05936807337416666</v>
+        <v>0.04559577971916666</v>
       </c>
       <c r="R8">
-        <v>0.3562084402449999</v>
+        <v>0.2735746783149999</v>
       </c>
       <c r="S8">
-        <v>0.1431791474903402</v>
+        <v>0.1223762790418867</v>
       </c>
       <c r="T8">
-        <v>0.1296536144772488</v>
+        <v>0.1211278064814785</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>0.5769949999999999</v>
       </c>
       <c r="I9">
-        <v>0.463559452416656</v>
+        <v>0.4784841953725119</v>
       </c>
       <c r="J9">
-        <v>0.5433768195511876</v>
+        <v>0.5646511609700341</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>0.202345</v>
       </c>
       <c r="O9">
-        <v>0.06749061620438539</v>
+        <v>0.0727657512435843</v>
       </c>
       <c r="P9">
-        <v>0.07820667867140826</v>
+        <v>0.09154871588838155</v>
       </c>
       <c r="Q9">
         <v>0.01297245036388889</v>
@@ -1013,10 +1013,10 @@
         <v>0.116752053275</v>
       </c>
       <c r="S9">
-        <v>0.03128591309096758</v>
+        <v>0.03481726193446279</v>
       </c>
       <c r="T9">
-        <v>0.04249569632413152</v>
+        <v>0.05169308871169045</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>0.5769949999999999</v>
       </c>
       <c r="I10">
-        <v>0.463559452416656</v>
+        <v>0.4784841953725119</v>
       </c>
       <c r="J10">
-        <v>0.5433768195511876</v>
+        <v>0.5646511609700341</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.07395633333333333</v>
+        <v>0.1397713333333333</v>
       </c>
       <c r="N10">
-        <v>0.221869</v>
+        <v>0.419314</v>
       </c>
       <c r="O10">
-        <v>0.07400269602239137</v>
+        <v>0.1507904727912837</v>
       </c>
       <c r="P10">
-        <v>0.08575273710814046</v>
+        <v>0.1897138958413641</v>
       </c>
       <c r="Q10">
-        <v>0.01422414485055555</v>
+        <v>0.02688245349222222</v>
       </c>
       <c r="R10">
-        <v>0.128017303655</v>
+        <v>0.24194208143</v>
       </c>
       <c r="S10">
-        <v>0.03430464924549599</v>
+        <v>0.07215085804337804</v>
       </c>
       <c r="T10">
-        <v>0.04659604955763046</v>
+        <v>0.1071221715389744</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,40 +1107,40 @@
         <v>0.5769949999999999</v>
       </c>
       <c r="I11">
-        <v>0.463559452416656</v>
+        <v>0.4784841953725119</v>
       </c>
       <c r="J11">
-        <v>0.5433768195511876</v>
+        <v>0.5646511609700341</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.102134</v>
+        <v>0.33346</v>
       </c>
       <c r="N11">
-        <v>0.204268</v>
+        <v>0.66692</v>
       </c>
       <c r="O11">
-        <v>0.1021980270639556</v>
+        <v>0.3597489546519897</v>
       </c>
       <c r="P11">
-        <v>0.07894992136623699</v>
+        <v>0.3017404413268399</v>
       </c>
       <c r="Q11">
-        <v>0.01964360244333333</v>
+        <v>0.06413491756666666</v>
       </c>
       <c r="R11">
-        <v>0.11786161466</v>
+        <v>0.3848095053999999</v>
       </c>
       <c r="S11">
-        <v>0.04737486146382983</v>
+        <v>0.1721341891027595</v>
       </c>
       <c r="T11">
-        <v>0.0428995571758022</v>
+        <v>0.1703780905068106</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>0.5769949999999999</v>
       </c>
       <c r="I12">
-        <v>0.463559452416656</v>
+        <v>0.4784841953725119</v>
       </c>
       <c r="J12">
-        <v>0.5433768195511876</v>
+        <v>0.5646511609700341</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.3978413333333333</v>
+        <v>0.07160233333333334</v>
       </c>
       <c r="N12">
-        <v>1.193524</v>
+        <v>0.214807</v>
       </c>
       <c r="O12">
-        <v>0.3980907371801767</v>
+        <v>0.07724723975082463</v>
       </c>
       <c r="P12">
-        <v>0.4612990088937897</v>
+        <v>0.09718700740732698</v>
       </c>
       <c r="Q12">
-        <v>0.07651748670888889</v>
+        <v>0.01377139610722222</v>
       </c>
       <c r="R12">
-        <v>0.6886573803799999</v>
+        <v>0.123942564965</v>
       </c>
       <c r="S12">
-        <v>0.1845387241393856</v>
+        <v>0.03696158335692084</v>
       </c>
       <c r="T12">
-        <v>0.2506591883148224</v>
+        <v>0.05487675656375048</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,40 +1231,40 @@
         <v>0.5769949999999999</v>
       </c>
       <c r="I13">
-        <v>0.463559452416656</v>
+        <v>0.4784841953725119</v>
       </c>
       <c r="J13">
-        <v>0.5433768195511876</v>
+        <v>0.5646511609700341</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.049318</v>
+        <v>0.07757366666666667</v>
       </c>
       <c r="N13">
-        <v>0.147954</v>
+        <v>0.232721</v>
       </c>
       <c r="O13">
-        <v>0.049348917096561</v>
+        <v>0.08368933452844489</v>
       </c>
       <c r="P13">
-        <v>0.05718446680743057</v>
+        <v>0.1052919949109691</v>
       </c>
       <c r="Q13">
-        <v>0.009485413136666666</v>
+        <v>0.01491987259944444</v>
       </c>
       <c r="R13">
-        <v>0.08536871822999999</v>
+        <v>0.134278853395</v>
       </c>
       <c r="S13">
-        <v>0.02287615698663677</v>
+        <v>0.04004402389310393</v>
       </c>
       <c r="T13">
-        <v>0.03107271370155208</v>
+        <v>0.05945324716732963</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1716785</v>
+        <v>0.004401</v>
       </c>
       <c r="H14">
-        <v>0.343357</v>
+        <v>0.013203</v>
       </c>
       <c r="I14">
-        <v>0.4137810108495544</v>
+        <v>0.01094884155235881</v>
       </c>
       <c r="J14">
-        <v>0.3233515621983503</v>
+        <v>0.01292054398788093</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,28 +1305,28 @@
         <v>0.5</v>
       </c>
       <c r="M14">
-        <v>0.3086755</v>
+        <v>0.2370685</v>
       </c>
       <c r="N14">
-        <v>0.617351</v>
+        <v>0.474137</v>
       </c>
       <c r="O14">
-        <v>0.30886900643253</v>
+        <v>0.2557582470338728</v>
       </c>
       <c r="P14">
-        <v>0.2386071871529939</v>
+        <v>0.2145179446251183</v>
       </c>
       <c r="Q14">
-        <v>0.05299294682675</v>
+        <v>0.0010433384685</v>
       </c>
       <c r="R14">
-        <v>0.211971787307</v>
+        <v>0.006260030811</v>
       </c>
       <c r="S14">
-        <v>0.1278041297017498</v>
+        <v>0.002800256522482917</v>
       </c>
       <c r="T14">
-        <v>0.07715400671767474</v>
+        <v>0.002771688539718647</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1716785</v>
+        <v>0.004401</v>
       </c>
       <c r="H15">
-        <v>0.343357</v>
+        <v>0.013203</v>
       </c>
       <c r="I15">
-        <v>0.4137810108495544</v>
+        <v>0.01094884155235881</v>
       </c>
       <c r="J15">
-        <v>0.3233515621983503</v>
+        <v>0.01292054398788093</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.202345</v>
       </c>
       <c r="O15">
-        <v>0.06749061620438539</v>
+        <v>0.0727657512435843</v>
       </c>
       <c r="P15">
-        <v>0.07820667867140826</v>
+        <v>0.09154871588838155</v>
       </c>
       <c r="Q15">
-        <v>0.01157942869416667</v>
+        <v>0.000296840115</v>
       </c>
       <c r="R15">
-        <v>0.069476572165</v>
+        <v>0.002671561035</v>
       </c>
       <c r="S15">
-        <v>0.02792633539590991</v>
+        <v>0.0007967006808043608</v>
       </c>
       <c r="T15">
-        <v>0.02528825172274426</v>
+        <v>0.001182859210669848</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1716785</v>
+        <v>0.004401</v>
       </c>
       <c r="H16">
-        <v>0.343357</v>
+        <v>0.013203</v>
       </c>
       <c r="I16">
-        <v>0.4137810108495544</v>
+        <v>0.01094884155235881</v>
       </c>
       <c r="J16">
-        <v>0.3233515621983503</v>
+        <v>0.01292054398788093</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.07395633333333333</v>
+        <v>0.1397713333333333</v>
       </c>
       <c r="N16">
-        <v>0.221869</v>
+        <v>0.419314</v>
       </c>
       <c r="O16">
-        <v>0.07400269602239137</v>
+        <v>0.1507904727912837</v>
       </c>
       <c r="P16">
-        <v>0.08575273710814046</v>
+        <v>0.1897138958413641</v>
       </c>
       <c r="Q16">
-        <v>0.01269671237216667</v>
+        <v>0.000615133638</v>
       </c>
       <c r="R16">
-        <v>0.07618027423300001</v>
+        <v>0.005536202741999999</v>
       </c>
       <c r="S16">
-        <v>0.0306209103657374</v>
+        <v>0.001650980994197038</v>
       </c>
       <c r="T16">
-        <v>0.02772828150670166</v>
+        <v>0.002451206736330607</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.1716785</v>
+        <v>0.004401</v>
       </c>
       <c r="H17">
-        <v>0.343357</v>
+        <v>0.013203</v>
       </c>
       <c r="I17">
-        <v>0.4137810108495544</v>
+        <v>0.01094884155235881</v>
       </c>
       <c r="J17">
-        <v>0.3233515621983503</v>
+        <v>0.01292054398788093</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.102134</v>
+        <v>0.33346</v>
       </c>
       <c r="N17">
-        <v>0.204268</v>
+        <v>0.66692</v>
       </c>
       <c r="O17">
-        <v>0.1021980270639556</v>
+        <v>0.3597489546519897</v>
       </c>
       <c r="P17">
-        <v>0.07894992136623699</v>
+        <v>0.3017404413268399</v>
       </c>
       <c r="Q17">
-        <v>0.017534211919</v>
+        <v>0.00146755746</v>
       </c>
       <c r="R17">
-        <v>0.07013684767600001</v>
+        <v>0.008805344759999998</v>
       </c>
       <c r="S17">
-        <v>0.04228760294535366</v>
+        <v>0.003938834303111352</v>
       </c>
       <c r="T17">
-        <v>0.02552858040920965</v>
+        <v>0.003898650645086041</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.1716785</v>
+        <v>0.004401</v>
       </c>
       <c r="H18">
-        <v>0.343357</v>
+        <v>0.013203</v>
       </c>
       <c r="I18">
-        <v>0.4137810108495544</v>
+        <v>0.01094884155235881</v>
       </c>
       <c r="J18">
-        <v>0.3233515621983503</v>
+        <v>0.01292054398788093</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1553,28 +1553,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.3978413333333333</v>
+        <v>0.07160233333333334</v>
       </c>
       <c r="N18">
-        <v>1.193524</v>
+        <v>0.214807</v>
       </c>
       <c r="O18">
-        <v>0.3980907371801767</v>
+        <v>0.07724723975082463</v>
       </c>
       <c r="P18">
-        <v>0.4612990088937897</v>
+        <v>0.09718700740732698</v>
       </c>
       <c r="Q18">
-        <v>0.06830080334466666</v>
+        <v>0.000315121869</v>
       </c>
       <c r="R18">
-        <v>0.4098048200680001</v>
+        <v>0.002836096821</v>
       </c>
       <c r="S18">
-        <v>0.1647223876402578</v>
+        <v>0.0008457677883888522</v>
       </c>
       <c r="T18">
-        <v>0.1491617551663576</v>
+        <v>0.001255709004256879</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.1716785</v>
+        <v>0.004401</v>
       </c>
       <c r="H19">
-        <v>0.343357</v>
+        <v>0.013203</v>
       </c>
       <c r="I19">
-        <v>0.4137810108495544</v>
+        <v>0.01094884155235881</v>
       </c>
       <c r="J19">
-        <v>0.3233515621983503</v>
+        <v>0.01292054398788093</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.049318</v>
+        <v>0.07757366666666667</v>
       </c>
       <c r="N19">
-        <v>0.147954</v>
+        <v>0.232721</v>
       </c>
       <c r="O19">
-        <v>0.049348917096561</v>
+        <v>0.08368933452844489</v>
       </c>
       <c r="P19">
-        <v>0.05718446680743057</v>
+        <v>0.1052919949109691</v>
       </c>
       <c r="Q19">
-        <v>0.008466840263</v>
+        <v>0.000341401707</v>
       </c>
       <c r="R19">
-        <v>0.05080104157800001</v>
+        <v>0.003072615363</v>
       </c>
       <c r="S19">
-        <v>0.02041964480054587</v>
+        <v>0.0009163012633742946</v>
       </c>
       <c r="T19">
-        <v>0.01849068667566239</v>
+        <v>0.001360429851818912</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.004148666666666666</v>
+        <v>0.148353</v>
       </c>
       <c r="H20">
-        <v>0.012446</v>
+        <v>0.296706</v>
       </c>
       <c r="I20">
-        <v>0.009999152409947573</v>
+        <v>0.3690737311558935</v>
       </c>
       <c r="J20">
-        <v>0.01172084315485243</v>
+        <v>0.2903584734127245</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1677,28 +1677,28 @@
         <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.3086755</v>
+        <v>0.2370685</v>
       </c>
       <c r="N20">
-        <v>0.617351</v>
+        <v>0.474137</v>
       </c>
       <c r="O20">
-        <v>0.30886900643253</v>
+        <v>0.2557582470338728</v>
       </c>
       <c r="P20">
-        <v>0.2386071871529939</v>
+        <v>0.2145179446251183</v>
       </c>
       <c r="Q20">
-        <v>0.001280591757666666</v>
+        <v>0.0351698231805</v>
       </c>
       <c r="R20">
-        <v>0.007683550545999999</v>
+        <v>0.140679292722</v>
       </c>
       <c r="S20">
-        <v>0.003088428270027945</v>
+        <v>0.09439365050668216</v>
       </c>
       <c r="T20">
-        <v>0.002796677416240763</v>
+        <v>0.06228710292098472</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.004148666666666666</v>
+        <v>0.148353</v>
       </c>
       <c r="H21">
-        <v>0.012446</v>
+        <v>0.296706</v>
       </c>
       <c r="I21">
-        <v>0.009999152409947573</v>
+        <v>0.3690737311558935</v>
       </c>
       <c r="J21">
-        <v>0.01172084315485243</v>
+        <v>0.2903584734127245</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1745,22 +1745,22 @@
         <v>0.202345</v>
       </c>
       <c r="O21">
-        <v>0.06749061620438539</v>
+        <v>0.0727657512435843</v>
       </c>
       <c r="P21">
-        <v>0.07820667867140826</v>
+        <v>0.09154871588838155</v>
       </c>
       <c r="Q21">
-        <v>0.0002798206522222222</v>
+        <v>0.010006162595</v>
       </c>
       <c r="R21">
-        <v>0.00251838587</v>
+        <v>0.06003697557</v>
       </c>
       <c r="S21">
-        <v>0.0006748489576689268</v>
+        <v>0.02685592731183126</v>
       </c>
       <c r="T21">
-        <v>0.0009166482143695195</v>
+        <v>0.0265819453882457</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.004148666666666666</v>
+        <v>0.148353</v>
       </c>
       <c r="H22">
-        <v>0.012446</v>
+        <v>0.296706</v>
       </c>
       <c r="I22">
-        <v>0.009999152409947573</v>
+        <v>0.3690737311558935</v>
       </c>
       <c r="J22">
-        <v>0.01172084315485243</v>
+        <v>0.2903584734127245</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.07395633333333333</v>
+        <v>0.1397713333333333</v>
       </c>
       <c r="N22">
-        <v>0.221869</v>
+        <v>0.419314</v>
       </c>
       <c r="O22">
-        <v>0.07400269602239137</v>
+        <v>0.1507904727912837</v>
       </c>
       <c r="P22">
-        <v>0.08575273710814046</v>
+        <v>0.1897138958413641</v>
       </c>
       <c r="Q22">
-        <v>0.0003068201748888888</v>
+        <v>0.020735496614</v>
       </c>
       <c r="R22">
-        <v>0.002761381574</v>
+        <v>0.124412979684</v>
       </c>
       <c r="S22">
-        <v>0.0007399642362749124</v>
+        <v>0.05565280241584032</v>
       </c>
       <c r="T22">
-        <v>0.001005094381743808</v>
+        <v>0.0550850371816791</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.004148666666666666</v>
+        <v>0.148353</v>
       </c>
       <c r="H23">
-        <v>0.012446</v>
+        <v>0.296706</v>
       </c>
       <c r="I23">
-        <v>0.009999152409947573</v>
+        <v>0.3690737311558935</v>
       </c>
       <c r="J23">
-        <v>0.01172084315485243</v>
+        <v>0.2903584734127245</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0.102134</v>
+        <v>0.33346</v>
       </c>
       <c r="N23">
-        <v>0.204268</v>
+        <v>0.66692</v>
       </c>
       <c r="O23">
-        <v>0.1021980270639556</v>
+        <v>0.3597489546519897</v>
       </c>
       <c r="P23">
-        <v>0.07894992136623699</v>
+        <v>0.3017404413268399</v>
       </c>
       <c r="Q23">
-        <v>0.0004237199213333333</v>
+        <v>0.04946979138</v>
       </c>
       <c r="R23">
-        <v>0.002542319528</v>
+        <v>0.19787916552</v>
       </c>
       <c r="S23">
-        <v>0.001021893648608439</v>
+        <v>0.1327738889728422</v>
       </c>
       <c r="T23">
-        <v>0.0009253596454215968</v>
+        <v>0.087612893910543</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.004148666666666666</v>
+        <v>0.148353</v>
       </c>
       <c r="H24">
-        <v>0.012446</v>
+        <v>0.296706</v>
       </c>
       <c r="I24">
-        <v>0.009999152409947573</v>
+        <v>0.3690737311558935</v>
       </c>
       <c r="J24">
-        <v>0.01172084315485243</v>
+        <v>0.2903584734127245</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1925,28 +1925,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.3978413333333333</v>
+        <v>0.07160233333333334</v>
       </c>
       <c r="N24">
-        <v>1.193524</v>
+        <v>0.214807</v>
       </c>
       <c r="O24">
-        <v>0.3980907371801767</v>
+        <v>0.07724723975082463</v>
       </c>
       <c r="P24">
-        <v>0.4612990088937897</v>
+        <v>0.09718700740732698</v>
       </c>
       <c r="Q24">
-        <v>0.001650511078222222</v>
+        <v>0.010622420957</v>
       </c>
       <c r="R24">
-        <v>0.014854599704</v>
+        <v>0.063734525742</v>
       </c>
       <c r="S24">
-        <v>0.00398056995405297</v>
+        <v>0.0285099269963307</v>
       </c>
       <c r="T24">
-        <v>0.005406813330732988</v>
+        <v>0.02821907110634261</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.004148666666666666</v>
+        <v>0.148353</v>
       </c>
       <c r="H25">
-        <v>0.012446</v>
+        <v>0.296706</v>
       </c>
       <c r="I25">
-        <v>0.009999152409947573</v>
+        <v>0.3690737311558935</v>
       </c>
       <c r="J25">
-        <v>0.01172084315485243</v>
+        <v>0.2903584734127245</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.049318</v>
+        <v>0.07757366666666667</v>
       </c>
       <c r="N25">
-        <v>0.147954</v>
+        <v>0.232721</v>
       </c>
       <c r="O25">
-        <v>0.049348917096561</v>
+        <v>0.08368933452844489</v>
       </c>
       <c r="P25">
-        <v>0.05718446680743057</v>
+        <v>0.1052919949109691</v>
       </c>
       <c r="Q25">
-        <v>0.0002046039426666666</v>
+        <v>0.011508286171</v>
       </c>
       <c r="R25">
-        <v>0.001841435484</v>
+        <v>0.069049717026</v>
       </c>
       <c r="S25">
-        <v>0.0004934473433143809</v>
+        <v>0.03088753495236691</v>
       </c>
       <c r="T25">
-        <v>0.0006702501663437588</v>
+        <v>0.03057242290492934</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,10 +2016,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -2031,16 +2031,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.035585</v>
+        <v>0.007993</v>
       </c>
       <c r="H26">
-        <v>0.106755</v>
+        <v>0.023979</v>
       </c>
       <c r="I26">
-        <v>0.08576727587369061</v>
+        <v>0.0198850467002963</v>
       </c>
       <c r="J26">
-        <v>0.1005350000800475</v>
+        <v>0.02346600956490169</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2049,28 +2049,28 @@
         <v>0.5</v>
       </c>
       <c r="M26">
-        <v>0.3086755</v>
+        <v>0.2370685</v>
       </c>
       <c r="N26">
-        <v>0.617351</v>
+        <v>0.474137</v>
       </c>
       <c r="O26">
-        <v>0.30886900643253</v>
+        <v>0.2557582470338728</v>
       </c>
       <c r="P26">
-        <v>0.2386071871529939</v>
+        <v>0.2145179446251183</v>
       </c>
       <c r="Q26">
-        <v>0.0109842176675</v>
+        <v>0.0018948885205</v>
       </c>
       <c r="R26">
-        <v>0.065905306005</v>
+        <v>0.011369331123</v>
       </c>
       <c r="S26">
-        <v>0.02649085328353152</v>
+        <v>0.005085764686254478</v>
       </c>
       <c r="T26">
-        <v>0.02398837357952616</v>
+        <v>0.005033880140416076</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,10 +2078,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -2093,16 +2093,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.035585</v>
+        <v>0.007993</v>
       </c>
       <c r="H27">
-        <v>0.106755</v>
+        <v>0.023979</v>
       </c>
       <c r="I27">
-        <v>0.08576727587369061</v>
+        <v>0.0198850467002963</v>
       </c>
       <c r="J27">
-        <v>0.1005350000800475</v>
+        <v>0.02346600956490169</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2117,22 +2117,22 @@
         <v>0.202345</v>
       </c>
       <c r="O27">
-        <v>0.06749061620438539</v>
+        <v>0.0727657512435843</v>
       </c>
       <c r="P27">
-        <v>0.07820667867140826</v>
+        <v>0.09154871588838155</v>
       </c>
       <c r="Q27">
-        <v>0.002400148941666666</v>
+        <v>0.0005391145283333333</v>
       </c>
       <c r="R27">
-        <v>0.021601340475</v>
+        <v>0.004852030755</v>
       </c>
       <c r="S27">
-        <v>0.005788486298886895</v>
+        <v>0.001446950361660817</v>
       </c>
       <c r="T27">
-        <v>0.007862508446490281</v>
+        <v>0.002148283042691229</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,13 +2140,13 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2155,46 +2155,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.035585</v>
+        <v>0.007993</v>
       </c>
       <c r="H28">
-        <v>0.106755</v>
+        <v>0.023979</v>
       </c>
       <c r="I28">
-        <v>0.08576727587369061</v>
+        <v>0.0198850467002963</v>
       </c>
       <c r="J28">
-        <v>0.1005350000800475</v>
+        <v>0.02346600956490169</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.07395633333333333</v>
+        <v>0.1397713333333333</v>
       </c>
       <c r="N28">
-        <v>0.221869</v>
+        <v>0.419314</v>
       </c>
       <c r="O28">
-        <v>0.07400269602239137</v>
+        <v>0.1507904727912837</v>
       </c>
       <c r="P28">
-        <v>0.08575273710814046</v>
+        <v>0.1897138958413641</v>
       </c>
       <c r="Q28">
-        <v>0.002631736121666667</v>
+        <v>0.001117192267333333</v>
       </c>
       <c r="R28">
-        <v>0.023685625095</v>
+        <v>0.010054730406</v>
       </c>
       <c r="S28">
-        <v>0.006347009645149308</v>
+        <v>0.002998475593414435</v>
       </c>
       <c r="T28">
-        <v>0.008621151432031198</v>
+        <v>0.004451828094408213</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,13 +2202,13 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2217,46 +2217,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.035585</v>
+        <v>0.007993</v>
       </c>
       <c r="H29">
-        <v>0.106755</v>
+        <v>0.023979</v>
       </c>
       <c r="I29">
-        <v>0.08576727587369061</v>
+        <v>0.0198850467002963</v>
       </c>
       <c r="J29">
-        <v>0.1005350000800475</v>
+        <v>0.02346600956490169</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>0.102134</v>
+        <v>0.33346</v>
       </c>
       <c r="N29">
-        <v>0.204268</v>
+        <v>0.66692</v>
       </c>
       <c r="O29">
-        <v>0.1021980270639556</v>
+        <v>0.3597489546519897</v>
       </c>
       <c r="P29">
-        <v>0.07894992136623699</v>
+        <v>0.3017404413268399</v>
       </c>
       <c r="Q29">
-        <v>0.00363443839</v>
+        <v>0.00266534578</v>
       </c>
       <c r="R29">
-        <v>0.02180663034</v>
+        <v>0.01599207468</v>
       </c>
       <c r="S29">
-        <v>0.008765246380941177</v>
+        <v>0.007153624763637591</v>
       </c>
       <c r="T29">
-        <v>0.007937230350874383</v>
+        <v>0.007080644082293282</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,13 +2264,13 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2279,16 +2279,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.035585</v>
+        <v>0.007993</v>
       </c>
       <c r="H30">
-        <v>0.106755</v>
+        <v>0.023979</v>
       </c>
       <c r="I30">
-        <v>0.08576727587369061</v>
+        <v>0.0198850467002963</v>
       </c>
       <c r="J30">
-        <v>0.1005350000800475</v>
+        <v>0.02346600956490169</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -2297,28 +2297,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>0.3978413333333333</v>
+        <v>0.07160233333333334</v>
       </c>
       <c r="N30">
-        <v>1.193524</v>
+        <v>0.214807</v>
       </c>
       <c r="O30">
-        <v>0.3980907371801767</v>
+        <v>0.07724723975082463</v>
       </c>
       <c r="P30">
-        <v>0.4612990088937897</v>
+        <v>0.09718700740732698</v>
       </c>
       <c r="Q30">
-        <v>0.01415718384666667</v>
+        <v>0.0005723174503333334</v>
       </c>
       <c r="R30">
-        <v>0.12741465462</v>
+        <v>0.005150857053</v>
       </c>
       <c r="S30">
-        <v>0.03414315807849308</v>
+        <v>0.001536064969914132</v>
       </c>
       <c r="T30">
-        <v>0.046376695896063</v>
+        <v>0.002280591245404506</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,13 +2326,13 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2341,46 +2341,418 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.035585</v>
+        <v>0.007993</v>
       </c>
       <c r="H31">
-        <v>0.106755</v>
+        <v>0.023979</v>
       </c>
       <c r="I31">
-        <v>0.08576727587369061</v>
+        <v>0.0198850467002963</v>
       </c>
       <c r="J31">
-        <v>0.1005350000800475</v>
+        <v>0.02346600956490169</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M31">
+        <v>0.07757366666666667</v>
+      </c>
+      <c r="N31">
+        <v>0.232721</v>
+      </c>
+      <c r="O31">
+        <v>0.08368933452844489</v>
+      </c>
+      <c r="P31">
+        <v>0.1052919949109691</v>
+      </c>
+      <c r="Q31">
+        <v>0.0006200463176666667</v>
+      </c>
+      <c r="R31">
+        <v>0.005580416859</v>
+      </c>
+      <c r="S31">
+        <v>0.001664166325414846</v>
+      </c>
+      <c r="T31">
+        <v>0.002470782959688381</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M31">
-        <v>0.049318</v>
-      </c>
-      <c r="N31">
-        <v>0.147954</v>
-      </c>
-      <c r="O31">
-        <v>0.049348917096561</v>
-      </c>
-      <c r="P31">
-        <v>0.05718446680743057</v>
-      </c>
-      <c r="Q31">
-        <v>0.00175498103</v>
-      </c>
-      <c r="R31">
-        <v>0.01579482927</v>
-      </c>
-      <c r="S31">
-        <v>0.004232522186688634</v>
-      </c>
-      <c r="T31">
-        <v>0.005749040375062508</v>
+      <c r="G32">
+        <v>0.01321466666666667</v>
+      </c>
+      <c r="H32">
+        <v>0.039644</v>
+      </c>
+      <c r="I32">
+        <v>0.03287554907988433</v>
+      </c>
+      <c r="J32">
+        <v>0.03879588319742118</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.5</v>
+      </c>
+      <c r="M32">
+        <v>0.2370685</v>
+      </c>
+      <c r="N32">
+        <v>0.474137</v>
+      </c>
+      <c r="O32">
+        <v>0.2557582470338728</v>
+      </c>
+      <c r="P32">
+        <v>0.2145179446251183</v>
+      </c>
+      <c r="Q32">
+        <v>0.003132781204666666</v>
+      </c>
+      <c r="R32">
+        <v>0.018796687228</v>
+      </c>
+      <c r="S32">
+        <v>0.008408192802947266</v>
+      </c>
+      <c r="T32">
+        <v>0.008322413123426955</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G33">
+        <v>0.01321466666666667</v>
+      </c>
+      <c r="H33">
+        <v>0.039644</v>
+      </c>
+      <c r="I33">
+        <v>0.03287554907988433</v>
+      </c>
+      <c r="J33">
+        <v>0.03879588319742118</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.06744833333333333</v>
+      </c>
+      <c r="N33">
+        <v>0.202345</v>
+      </c>
+      <c r="O33">
+        <v>0.0727657512435843</v>
+      </c>
+      <c r="P33">
+        <v>0.09154871588838155</v>
+      </c>
+      <c r="Q33">
+        <v>0.0008913072422222221</v>
+      </c>
+      <c r="R33">
+        <v>0.008021765179999999</v>
+      </c>
+      <c r="S33">
+        <v>0.00239221402634311</v>
+      </c>
+      <c r="T33">
+        <v>0.003551713288479547</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G34">
+        <v>0.01321466666666667</v>
+      </c>
+      <c r="H34">
+        <v>0.039644</v>
+      </c>
+      <c r="I34">
+        <v>0.03287554907988433</v>
+      </c>
+      <c r="J34">
+        <v>0.03879588319742118</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.1397713333333333</v>
+      </c>
+      <c r="N34">
+        <v>0.419314</v>
+      </c>
+      <c r="O34">
+        <v>0.1507904727912837</v>
+      </c>
+      <c r="P34">
+        <v>0.1897138958413641</v>
+      </c>
+      <c r="Q34">
+        <v>0.001847031579555556</v>
+      </c>
+      <c r="R34">
+        <v>0.016623284216</v>
+      </c>
+      <c r="S34">
+        <v>0.004957319589028811</v>
+      </c>
+      <c r="T34">
+        <v>0.00736011814398929</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G35">
+        <v>0.01321466666666667</v>
+      </c>
+      <c r="H35">
+        <v>0.039644</v>
+      </c>
+      <c r="I35">
+        <v>0.03287554907988433</v>
+      </c>
+      <c r="J35">
+        <v>0.03879588319742118</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.33346</v>
+      </c>
+      <c r="N35">
+        <v>0.66692</v>
+      </c>
+      <c r="O35">
+        <v>0.3597489546519897</v>
+      </c>
+      <c r="P35">
+        <v>0.3017404413268399</v>
+      </c>
+      <c r="Q35">
+        <v>0.004406562746666666</v>
+      </c>
+      <c r="R35">
+        <v>0.02643937648</v>
+      </c>
+      <c r="S35">
+        <v>0.01182694441509857</v>
+      </c>
+      <c r="T35">
+        <v>0.0117062869176544</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G36">
+        <v>0.01321466666666667</v>
+      </c>
+      <c r="H36">
+        <v>0.039644</v>
+      </c>
+      <c r="I36">
+        <v>0.03287554907988433</v>
+      </c>
+      <c r="J36">
+        <v>0.03879588319742118</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M36">
+        <v>0.07160233333333334</v>
+      </c>
+      <c r="N36">
+        <v>0.214807</v>
+      </c>
+      <c r="O36">
+        <v>0.07724723975082463</v>
+      </c>
+      <c r="P36">
+        <v>0.09718700740732698</v>
+      </c>
+      <c r="Q36">
+        <v>0.0009462009675555555</v>
+      </c>
+      <c r="R36">
+        <v>0.008515808708</v>
+      </c>
+      <c r="S36">
+        <v>0.002539545421713827</v>
+      </c>
+      <c r="T36">
+        <v>0.003770455787681565</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G37">
+        <v>0.01321466666666667</v>
+      </c>
+      <c r="H37">
+        <v>0.039644</v>
+      </c>
+      <c r="I37">
+        <v>0.03287554907988433</v>
+      </c>
+      <c r="J37">
+        <v>0.03879588319742118</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M37">
+        <v>0.07757366666666667</v>
+      </c>
+      <c r="N37">
+        <v>0.232721</v>
+      </c>
+      <c r="O37">
+        <v>0.08368933452844489</v>
+      </c>
+      <c r="P37">
+        <v>0.1052919949109691</v>
+      </c>
+      <c r="Q37">
+        <v>0.001025110147111111</v>
+      </c>
+      <c r="R37">
+        <v>0.009225991324</v>
+      </c>
+      <c r="S37">
+        <v>0.002751332824752748</v>
+      </c>
+      <c r="T37">
+        <v>0.004084895936189423</v>
       </c>
     </row>
   </sheetData>
